--- a/biology/Botanique/Fagus_lucida/Fagus_lucida.xlsx
+++ b/biology/Botanique/Fagus_lucida/Fagus_lucida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fagus lucida est une espèce d'arbre de la famille des Fagacées. Il est originaire du sud et de l'est de la Chine[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fagus lucida est une espèce d'arbre de la famille des Fagacées. Il est originaire du sud et de l'est de la Chine.
 Synonymes hétérotypiques :
 Fagus lucida var. opienica Y.T.Chang  (1966)
 Fagus nayonica Y.T.Chang  (1966)
@@ -514,10 +526,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre atteignant 25 m de haut. Ses bourgeons d'hiver mesurent environ 1,5 cm. Le pétiole fait 0,6-2 cm ; les limbes des feuilles sont ovales à elliptique-ovales, de 5 à 11 cm. Elles sont de couleur vert brillant et glabres, à l'exception d'une pubescence soyeuse sur la nervure médiane. Leur base est largement cunéiforme à arrondie avec une marge légèrement sinueuse. Les apex sont aigus à brièvement acuminés ; les nervures secondaires des feuilles, au nombre de 8 à 12 de chaque côté de la nervure médiane se terminant par de minuscules dents. Les pédoncules sont de 0,5-1,5 cm, glabres. Les cupule mesurent 1-1,5 cm ; les bractées étroitement appliquées, triangulaires mucronées, sont de 1-2 mm, rarement apicales, légèrement ascendantes. Les faines sont munies d'ailes minuscules ou à peine visibles près de l'apex. La floraison a lieu en avril-mai, la fructification en septembre-octobre[2].
-Les graines et les jeunes feuilles sont comestibles[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre atteignant 25 m de haut. Ses bourgeons d'hiver mesurent environ 1,5 cm. Le pétiole fait 0,6-2 cm ; les limbes des feuilles sont ovales à elliptique-ovales, de 5 à 11 cm. Elles sont de couleur vert brillant et glabres, à l'exception d'une pubescence soyeuse sur la nervure médiane. Leur base est largement cunéiforme à arrondie avec une marge légèrement sinueuse. Les apex sont aigus à brièvement acuminés ; les nervures secondaires des feuilles, au nombre de 8 à 12 de chaque côté de la nervure médiane se terminant par de minuscules dents. Les pédoncules sont de 0,5-1,5 cm, glabres. Les cupule mesurent 1-1,5 cm ; les bractées étroitement appliquées, triangulaires mucronées, sont de 1-2 mm, rarement apicales, légèrement ascendantes. Les faines sont munies d'ailes minuscules ou à peine visibles près de l'apex. La floraison a lieu en avril-mai, la fructification en septembre-octobre.
+Les graines et les jeunes feuilles sont comestibles.
 </t>
         </is>
       </c>
